--- a/Other/МАвТФЯ ЛР№9.xlsx
+++ b/Other/МАвТФЯ ЛР№9.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -249,9 +249,6 @@
     <t>&lt;данные&gt;</t>
   </si>
   <si>
-    <t>&lt;присваивание&gt;</t>
-  </si>
-  <si>
     <t>&lt;x8 число&gt;</t>
   </si>
   <si>
@@ -343,6 +340,12 @@
   </si>
   <si>
     <t>A7</t>
+  </si>
+  <si>
+    <t>A1 = &lt;идентификатор&gt;</t>
+  </si>
+  <si>
+    <t>&lt;присваивание&gt; |A1</t>
   </si>
   <si>
     <r>
@@ -351,7 +354,18 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">&lt;иниц. цикла&gt;(for </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <charset val="204"/>
@@ -366,14 +380,8 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">&lt;иниц. цикла&gt;(for </t>
+      <t>&lt;присваивание&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>A1 = &lt;идентификатор&gt;</t>
-  </si>
-  <si>
-    <t>&lt;присваивание&gt; |A1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +460,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
@@ -807,7 +814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -884,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>52</v>
@@ -944,7 +951,7 @@
         <v>70</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -954,7 +961,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>54</v>
@@ -990,7 +997,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -1095,7 +1102,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12" t="s">
@@ -1216,7 +1223,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>66</v>
@@ -1256,10 +1263,10 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -1337,7 +1344,7 @@
         <v>69</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB10" s="12"/>
       <c r="AC10" s="9" t="s">
@@ -1419,7 +1426,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -1458,7 +1465,7 @@
         <v>75</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1468,7 +1475,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -1498,7 +1505,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1507,7 +1514,7 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -1538,7 +1545,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1576,19 +1583,19 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="J16" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -1609,7 +1616,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD16" s="18"/>
       <c r="AF16" s="2"/>
@@ -1624,23 +1631,23 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -1659,7 +1666,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD17" s="18"/>
       <c r="AF17" s="2"/>
@@ -1681,16 +1688,16 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -1718,23 +1725,23 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
@@ -1753,7 +1760,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD19" s="18"/>
       <c r="AF19" s="2"/>
@@ -1775,19 +1782,19 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
@@ -1814,23 +1821,23 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
@@ -1849,7 +1856,7 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
       <c r="AC21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD21" s="18"/>
       <c r="AF21" s="2"/>
@@ -1871,25 +1878,25 @@
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
       <c r="M22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R22" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
@@ -1914,23 +1921,23 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
@@ -1949,7 +1956,7 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD23" s="18"/>
       <c r="AF23" s="2"/>
@@ -1971,31 +1978,31 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S24" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
@@ -2018,23 +2025,23 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -2053,7 +2060,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
       <c r="AC25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD25" s="18"/>
       <c r="AF25" s="2"/>
@@ -2075,40 +2082,40 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="W26" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="W26" s="13" t="s">
+      <c r="X26" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="X26" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
@@ -2126,23 +2133,23 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
@@ -2157,13 +2164,13 @@
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
       <c r="AC27" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD27" s="18"/>
     </row>
@@ -2176,23 +2183,23 @@
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
@@ -2211,7 +2218,7 @@
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
       <c r="AC28" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD28" s="18"/>
     </row>
@@ -2224,7 +2231,7 @@
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -2253,30 +2260,30 @@
     </row>
     <row r="30" spans="1:33" ht="18.75">
       <c r="A30" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
@@ -2315,11 +2322,11 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
